--- a/biology/Zoologie/Furcifer_pardalis/Furcifer_pardalis.xlsx
+++ b/biology/Zoologie/Furcifer_pardalis/Furcifer_pardalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caméléon panthère, endormi
-Le caméléon panthère (Furcifer pardalis) est une espèce de sauriens originaire de Madagascar de la famille des Chamaeleonidae[1], désigné à La Réunion sous le nom d'endormi.
+Le caméléon panthère (Furcifer pardalis) est une espèce de sauriens originaire de Madagascar de la famille des Chamaeleonidae, désigné à La Réunion sous le nom d'endormi.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est à l'origine endémique de Madagascar[1]. Elle a été introduite à La Réunion depuis de nombreuses années où elle bénéficie, bien que d'origine exotique, du statut d'espèce protégée. Son introduction à l'île Maurice est discutée, niée par ReptileDB mais affirmée par l'UICN. Il vit dans les arbres des maquis arborés humides.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est à l'origine endémique de Madagascar. Elle a été introduite à La Réunion depuis de nombreuses années où elle bénéficie, bien que d'origine exotique, du statut d'espèce protégée. Son introduction à l'île Maurice est discutée, niée par ReptileDB mais affirmée par l'UICN. Il vit dans les arbres des maquis arborés humides.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait partie des plus grands caméléons existants, sa taille peut atteindre 55 cm queue comprise pour le mâle et 35 cm pour la femelle. La femelle vit environ 3 ans, le mâle peut atteindre 5 ans. Les yeux des caméléons sont indépendamment mobiles ; ses yeux peuvent donc voir dans deux directions différentes.
 L'espèce présente diverses colorations (appelées « phases ») caractéristiques des différentes régions malgaches dont il peut être originaire. Les femelles ont des teintes assez ternes, alors que les mâles ont des couleurs très spectaculaires :
@@ -582,7 +598,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Face à un congénère rival, il gonfle instantanément son corps et change de couleur, et ce comportement est généralement suffisant pour décider de l'individu dominant et de l'issue de la dispute. Sa capacité à changer de couleur traduit son humeur et n'est pas une technique de camouflage.
 </t>
@@ -613,9 +631,11 @@
           <t>En captivité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce caméléon est élevé par certains terrariophiles[2]. Comme d'autres caméléons, il fait partie des NAC, mais nécessite un vivarium très spécifique[3]. Le vivarium, pour un adulte, doit mesurer minimum entre 80 x 80  de la base et pour une hauteur de 1,50 m. Pour un animal plus jeune, 40 x 40 x 70 cm fait l'affaire. Dans leur vivarium, il doit y avoir une température moyenne de 27- 29 degrés Celsius le jour et entre 20-24 degrés Celsius la nuit. Une ampoule de 40-100 watts pourrait être accrochée au-dessus du vivarium. Trois vaporisations d'eau par jour, pour bien garder l'humidité.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce caméléon est élevé par certains terrariophiles. Comme d'autres caméléons, il fait partie des NAC, mais nécessite un vivarium très spécifique. Le vivarium, pour un adulte, doit mesurer minimum entre 80 x 80  de la base et pour une hauteur de 1,50 m. Pour un animal plus jeune, 40 x 40 x 70 cm fait l'affaire. Dans leur vivarium, il doit y avoir une température moyenne de 27- 29 degrés Celsius le jour et entre 20-24 degrés Celsius la nuit. Une ampoule de 40-100 watts pourrait être accrochée au-dessus du vivarium. Trois vaporisations d'eau par jour, pour bien garder l'humidité.
 </t>
         </is>
       </c>
